--- a/doc/外部設計書関連/02_DB定義書_生活習慣病ver.1.8.xlsx
+++ b/doc/外部設計書関連/02_DB定義書_生活習慣病ver.1.8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DB定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\外部設計書関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87BB9CD-6893-4524-8870-A9D50FB62FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907B9E8-A6C4-4F62-9C7B-6A4469E78482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CEC7FE-2320-41F0-BA67-AFC059A26037}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3502,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E531C7E2-AE8F-41E0-9D95-C5CDAC06C583}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3720,7 +3720,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>sleep_goal integer (5),</v>
@@ -3802,9 +3804,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>write_free_goal varchar (255)</v>
